--- a/execl/api.xlsx
+++ b/execl/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hankwang\Desktop\test_api\test_api\execl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAFCBBF-4357-4041-AFE8-268173A4440C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB8F070-6A93-48F0-9A45-9CC01D4A6992}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/execl/api.xlsx
+++ b/execl/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hankwang\Desktop\test_api\test_api\execl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB8F070-6A93-48F0-9A45-9CC01D4A6992}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC481AD9-4869-4103-8AE1-66D309E15151}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
